--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bosch.com\dfsrb\DfsVN\LOC\Hc\RBVH\20_EDA\04_External\00_Common\02_EDA2\db_BGSV_EDA2_Automation_Tool\DCOM\DB_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E085085-0307-41A6-8E99-F7D94A9C7449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB0520-5B1F-4924-95DA-481BCA43E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="885" windowWidth="24855" windowHeight="15315" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26595" yWindow="480" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="98">
   <si>
     <t>NRC</t>
   </si>
@@ -171,33 +171,6 @@
     <t>DID</t>
   </si>
   <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>F120</t>
-  </si>
-  <si>
-    <t>F121</t>
-  </si>
-  <si>
-    <t>F187</t>
-  </si>
-  <si>
-    <t>F18A</t>
-  </si>
-  <si>
-    <t>F18C</t>
-  </si>
-  <si>
-    <t>F190</t>
-  </si>
-  <si>
-    <t>F191</t>
-  </si>
-  <si>
-    <t>F194</t>
-  </si>
-  <si>
     <t>Information</t>
   </si>
   <si>
@@ -279,189 +252,6 @@
     <t>DID name</t>
   </si>
   <si>
-    <t>NetworkInformationDataIdentifier</t>
-  </si>
-  <si>
-    <t>FunctionSpecificationDataIdentifier</t>
-  </si>
-  <si>
-    <t>DiagnosticDefinitionDataIdentifier</t>
-  </si>
-  <si>
-    <t>CHANA_ECUSoftwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>CHANA_ECUHardwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>System Supplier Identifier</t>
-  </si>
-  <si>
-    <t>ECUSerialNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>VINDataIdentifier</t>
-  </si>
-  <si>
-    <t>FBL Version Information</t>
-  </si>
-  <si>
-    <t>FBL Requirement Specification</t>
-  </si>
-  <si>
-    <t>Fingerprint</t>
-  </si>
-  <si>
-    <t>Software Number</t>
-  </si>
-  <si>
-    <t>Calibration DataIdentifier</t>
-  </si>
-  <si>
-    <t>vehicle type</t>
-  </si>
-  <si>
-    <t>vehicle configuration</t>
-  </si>
-  <si>
-    <t>ECU Hardware version number</t>
-  </si>
-  <si>
-    <t>Supplier Software number</t>
-  </si>
-  <si>
-    <t>FAB switch</t>
-  </si>
-  <si>
-    <t>TSR switch</t>
-  </si>
-  <si>
-    <t>TLA switch</t>
-  </si>
-  <si>
-    <t>Body_height_wheelhouse_edge</t>
-  </si>
-  <si>
-    <t>Calibration Board Distance</t>
-  </si>
-  <si>
-    <t>Invalid Key Counter</t>
-  </si>
-  <si>
-    <t>Current Calibration Status</t>
-  </si>
-  <si>
-    <t>Current static calibration details</t>
-  </si>
-  <si>
-    <t>Current EOL calibration parameters</t>
-  </si>
-  <si>
-    <t>ECU Temperature</t>
-  </si>
-  <si>
-    <t>Can read the Previuos Calibration result</t>
-  </si>
-  <si>
-    <t>Can read the Previuos Previous result</t>
-  </si>
-  <si>
-    <t>ECU Supplier voltage</t>
-  </si>
-  <si>
-    <t>ProgrammingCounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProgrammingAttemptCounter </t>
-  </si>
-  <si>
-    <t>ActiveDiagnosticSessionDataIdentifier</t>
-  </si>
-  <si>
-    <t>Lane Function Configuration</t>
-  </si>
-  <si>
-    <t>F122</t>
-  </si>
-  <si>
-    <t>F189</t>
-  </si>
-  <si>
-    <t>F089</t>
-  </si>
-  <si>
-    <t>F170</t>
-  </si>
-  <si>
-    <t>F171</t>
-  </si>
-  <si>
-    <t>F184</t>
-  </si>
-  <si>
-    <t>F188</t>
-  </si>
-  <si>
-    <t>F123</t>
-  </si>
-  <si>
-    <t>F1F0</t>
-  </si>
-  <si>
-    <t>F1F4</t>
-  </si>
-  <si>
-    <t>F1F1</t>
-  </si>
-  <si>
-    <t>F1F2</t>
-  </si>
-  <si>
-    <t>F1F3</t>
-  </si>
-  <si>
-    <t>F1F5</t>
-  </si>
-  <si>
-    <t>3BAF</t>
-  </si>
-  <si>
-    <t>F1F7</t>
-  </si>
-  <si>
-    <t>F1F8</t>
-  </si>
-  <si>
-    <t>F1F9</t>
-  </si>
-  <si>
-    <t>11B7</t>
-  </si>
-  <si>
-    <t>F1FA</t>
-  </si>
-  <si>
-    <t>F1FB</t>
-  </si>
-  <si>
-    <t>11B5</t>
-  </si>
-  <si>
-    <t>0200</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>F1FD</t>
-  </si>
-  <si>
-    <t>F1FE</t>
-  </si>
-  <si>
     <t>Data_Path_Information</t>
   </si>
   <si>
@@ -531,12 +321,6 @@
     <t>// Stop DTC Setting</t>
   </si>
   <si>
-    <t>Physical</t>
-  </si>
-  <si>
-    <t>SID Support</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -550,6 +334,12 @@
   </si>
   <si>
     <t>Current_Voltage</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Allow Session</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +865,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1096,12 +886,12 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1115,14 +905,14 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -1173,21 +963,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="20"/>
@@ -1224,69 +1014,69 @@
     </row>
     <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B34" s="22"/>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="B41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B43" s="22"/>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>31</v>
@@ -1312,7 +1102,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B54" s="22"/>
     </row>
@@ -1324,19 +1114,19 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B56" s="22"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B57" s="22"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B58" s="22"/>
     </row>
@@ -1348,19 +1138,19 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B60" s="22"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B61" s="22"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="B62" s="22"/>
     </row>
@@ -1377,7 +1167,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N7" sqref="N7:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1413,7 +1203,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -1424,27 +1214,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -1463,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -1493,7 +1283,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1504,14 +1294,14 @@
       </c>
       <c r="L3" s="7"/>
       <c r="N3" s="9" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
@@ -1534,14 +1324,14 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
@@ -1561,7 +1351,9 @@
         <v>16</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
@@ -1582,7 +1374,9 @@
         <v>17</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
@@ -1810,7 +1604,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -1847,8 +1641,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1884,7 +1678,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -1895,27 +1689,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -1934,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -1963,11 +1757,11 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1985,7 +1779,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
@@ -2000,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -2015,14 +1809,14 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
@@ -2043,7 +1837,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2066,7 +1860,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -2295,7 +2089,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -2333,7 +2127,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2369,7 +2163,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -2380,27 +2174,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -2419,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -2448,11 +2242,11 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2470,7 +2264,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
@@ -2485,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -2500,14 +2294,14 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
@@ -2528,7 +2322,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2551,7 +2345,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -2780,7 +2574,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -2818,7 +2612,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2854,7 +2648,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -2865,27 +2659,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -2904,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -2933,11 +2727,11 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2955,7 +2749,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
@@ -2970,7 +2764,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -2985,14 +2779,14 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
@@ -3013,7 +2807,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -3036,7 +2830,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3265,7 +3059,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -3303,7 +3097,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3339,7 +3133,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -3350,27 +3144,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -3389,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -3419,7 +3213,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3437,7 +3231,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
@@ -3464,14 +3258,14 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
@@ -3487,7 +3281,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3498,7 +3292,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -3512,7 +3306,7 @@
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
       <c r="F6" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -3523,7 +3317,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3537,7 +3331,7 @@
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
       <c r="F7" s="8" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3754,7 +3548,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -3785,7 +3579,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3821,7 +3615,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -3832,27 +3626,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -3871,13 +3665,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -3899,7 +3693,7 @@
       <c r="B3" s="7"/>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3917,7 +3711,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
@@ -3942,14 +3736,14 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
@@ -3972,7 +3766,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -3995,7 +3789,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -4224,7 +4018,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -4262,7 +4056,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4298,7 +4092,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -4309,27 +4103,27 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -4348,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -4378,7 +4172,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4389,14 +4183,14 @@
       </c>
       <c r="L3" s="7"/>
       <c r="N3" s="9" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
@@ -4419,14 +4213,14 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
@@ -4446,7 +4240,9 @@
         <v>16</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
@@ -4467,7 +4263,9 @@
         <v>17</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
@@ -4695,7 +4493,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -4733,7 +4531,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4769,7 +4567,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -4780,20 +4578,20 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
@@ -4802,7 +4600,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -4821,13 +4619,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -4851,7 +4649,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4862,14 +4660,14 @@
       </c>
       <c r="L3" s="7"/>
       <c r="N3" s="9" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
@@ -4896,14 +4694,14 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
@@ -4927,7 +4725,9 @@
         <v>16</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
@@ -4952,7 +4752,9 @@
         <v>17</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
@@ -5203,7 +5005,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
@@ -5240,8 +5042,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5279,7 +5081,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -5291,37 +5093,37 @@
       </c>
       <c r="M1" s="29"/>
       <c r="O1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
       <c r="U1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="V1" s="29"/>
       <c r="AC1" s="28" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="AD1" s="29"/>
     </row>
     <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>38</v>
@@ -5343,13 +5145,13 @@
         <v>0</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -5371,12 +5173,8 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="18"/>
       <c r="E3" s="2"/>
@@ -5391,31 +5189,27 @@
       </c>
       <c r="M3" s="7"/>
       <c r="O3" s="9" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="7"/>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="18"/>
       <c r="E4" s="2"/>
@@ -5430,31 +5224,27 @@
       </c>
       <c r="M4" s="7"/>
       <c r="O4" s="9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="18"/>
       <c r="E5" s="2"/>
@@ -5468,23 +5258,23 @@
         <v>16</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
-      <c r="AC5" s="9"/>
+      <c r="AC5" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>113</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="18"/>
       <c r="E6" s="2"/>
@@ -5498,7 +5288,9 @@
         <v>17</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
@@ -5507,12 +5299,8 @@
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="18"/>
       <c r="E7" s="2"/>
@@ -5535,12 +5323,8 @@
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="18"/>
       <c r="E8" s="2"/>
@@ -5563,12 +5347,8 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="18"/>
       <c r="E9" s="3"/>
@@ -5591,12 +5371,8 @@
       <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="18"/>
       <c r="E10" s="2"/>
@@ -5619,12 +5395,8 @@
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="18"/>
       <c r="E11" s="2"/>
@@ -5647,12 +5419,8 @@
       <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="18"/>
       <c r="E12" s="2"/>
@@ -5675,12 +5443,8 @@
       <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="18"/>
       <c r="E13" s="2"/>
@@ -5703,12 +5467,8 @@
       <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="18"/>
       <c r="E14" s="2"/>
@@ -5731,12 +5491,8 @@
       <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>118</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="18"/>
       <c r="E15" s="2"/>
@@ -5759,12 +5515,8 @@
       <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>119</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="18"/>
       <c r="E16" s="2"/>
@@ -5787,12 +5539,8 @@
       <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="18"/>
       <c r="E17" s="4"/>
@@ -5803,7 +5551,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="4"/>
       <c r="L17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7"/>
       <c r="O17" s="9"/>
@@ -5815,12 +5563,8 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>121</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="18"/>
       <c r="F18" s="7"/>
@@ -5830,12 +5574,8 @@
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="18"/>
       <c r="F19" s="7"/>
@@ -5845,12 +5585,8 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="18"/>
       <c r="F20" s="7"/>
@@ -5860,12 +5596,8 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>122</v>
-      </c>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="18"/>
       <c r="F21" s="7"/>
@@ -5875,12 +5607,8 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="18"/>
       <c r="F22" s="7"/>
@@ -5890,12 +5618,8 @@
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>124</v>
-      </c>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="18"/>
       <c r="F23" s="7"/>
@@ -5905,12 +5629,8 @@
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>125</v>
-      </c>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="18"/>
       <c r="F24" s="7"/>
@@ -5920,12 +5640,8 @@
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>126</v>
-      </c>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="18"/>
       <c r="F25" s="7"/>
@@ -5935,12 +5651,8 @@
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="18"/>
       <c r="F26" s="7"/>
@@ -5950,12 +5662,8 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>127</v>
-      </c>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="18"/>
       <c r="F27" s="7"/>
@@ -5965,12 +5673,8 @@
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="18"/>
       <c r="F28" s="7"/>
@@ -5980,12 +5684,8 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>129</v>
-      </c>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="18"/>
       <c r="F29" s="7"/>
@@ -5995,12 +5695,8 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>130</v>
-      </c>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="18"/>
       <c r="F30" s="7"/>
@@ -6010,12 +5706,8 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>131</v>
-      </c>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="18"/>
       <c r="F31" s="7"/>
@@ -6025,12 +5717,8 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>132</v>
-      </c>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="18"/>
       <c r="F32" s="7"/>
@@ -6040,12 +5728,8 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>133</v>
-      </c>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="18"/>
       <c r="F33" s="7"/>
@@ -6055,12 +5739,8 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>134</v>
-      </c>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="18"/>
       <c r="F34" s="7"/>
@@ -6070,12 +5750,8 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>135</v>
-      </c>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="18"/>
       <c r="F35" s="7"/>
@@ -6085,12 +5761,8 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="18"/>
       <c r="F36" s="7"/>
@@ -6100,12 +5772,8 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>137</v>
-      </c>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="18"/>
       <c r="F37" s="7"/>
@@ -6134,8 +5802,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AD111"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6173,7 +5841,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -6185,37 +5853,37 @@
       </c>
       <c r="M1" s="29"/>
       <c r="O1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
       <c r="U1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="V1" s="29"/>
       <c r="AC1" s="28" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="AD1" s="29"/>
     </row>
     <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>38</v>
@@ -6237,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -6281,21 +5949,21 @@
       </c>
       <c r="M3" s="7"/>
       <c r="O3" s="9" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="7"/>
     </row>
@@ -6316,21 +5984,21 @@
       </c>
       <c r="M4" s="7"/>
       <c r="O4" s="9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AD4" s="7"/>
     </row>
@@ -6350,14 +6018,18 @@
         <v>16</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
-      <c r="AC5" s="9"/>
+      <c r="AC5" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6376,7 +6048,9 @@
         <v>17</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
@@ -6637,7 +6311,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="4"/>
       <c r="L17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7"/>
       <c r="O17" s="9"/>
@@ -6896,7 +6570,7 @@
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6933,7 +6607,7 @@
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -6945,27 +6619,27 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
       <c r="O1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
       <c r="U1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="V1" s="29"/>
     </row>
     <row r="2" spans="1:23" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -6981,19 +6655,19 @@
         <v>8</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -7017,7 +6691,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -7036,7 +6710,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="6" t="s">
@@ -7064,14 +6738,14 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="O4" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="6" t="s">
@@ -7093,7 +6767,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="O5" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -7117,7 +6791,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="O6" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -7356,7 +7030,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -7395,7 +7069,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P1:P1048576"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7433,7 +7107,7 @@
       <c r="D1" s="31"/>
       <c r="E1" s="25"/>
       <c r="F1" s="28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -7444,33 +7118,33 @@
       </c>
       <c r="L1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="T1" s="28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
@@ -7489,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -7520,10 +7194,10 @@
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="25" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -7541,7 +7215,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
@@ -7558,7 +7232,7 @@
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="25" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>38</v>
@@ -7572,14 +7246,14 @@
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
@@ -7596,7 +7270,7 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -7608,7 +7282,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -7625,7 +7299,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
@@ -7637,7 +7311,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -7652,7 +7326,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
@@ -7677,7 +7351,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
@@ -7702,7 +7376,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
@@ -7894,7 +7568,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bosch.com\dfsrb\DfsVN\LOC\Hc\RBVH\20_EDA\04_External\00_Common\02_EDA2\db_BGSV_EDA2_Automation_Tool\DCOM\DB_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB0520-5B1F-4924-95DA-481BCA43E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{849CF304-1DD5-4043-BF42-F09196E3AEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26595" yWindow="480" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27465" yWindow="1890" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="103">
   <si>
     <t>NRC</t>
   </si>
@@ -340,6 +340,21 @@
   </si>
   <si>
     <t>Allow Session</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\RequirementDB____DCOM.xlsx</t>
+  </si>
+  <si>
+    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase</t>
   </si>
 </sst>
 </file>
@@ -893,29 +908,45 @@
       <c r="A2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
@@ -965,21 +996,27 @@
       <c r="A21" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1025,28 +1062,36 @@
       <c r="A31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="22"/>
+      <c r="B31" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
@@ -1060,19 +1105,25 @@
       <c r="A41" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="22" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
@@ -1086,73 +1137,97 @@
       <c r="A51" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="22" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="22"/>
+      <c r="B55" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="22"/>
+      <c r="B59" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="22"/>
+      <c r="B60" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="22"/>
+      <c r="B61" s="22" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="22" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3215,25 +3290,37 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -3249,25 +3336,37 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -3283,20 +3382,30 @@
       <c r="F5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -3308,20 +3417,30 @@
       <c r="F6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -3333,14 +3452,22 @@
       <c r="F7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -3361,7 +3488,9 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -3382,7 +3511,9 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -3403,7 +3534,9 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -3424,7 +3557,9 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -3445,7 +3580,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -3466,7 +3603,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -3487,7 +3626,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -3508,7 +3649,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -3529,7 +3672,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -3550,7 +3695,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bosch.com\dfsrb\DfsVN\LOC\Hc\RBVH\20_EDA\04_External\00_Common\02_EDA2\db_BGSV_EDA2_Automation_Tool\DCOM\DB_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{849CF304-1DD5-4043-BF42-F09196E3AEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB0520-5B1F-4924-95DA-481BCA43E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27465" yWindow="1890" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26595" yWindow="480" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="98">
   <si>
     <t>NRC</t>
   </si>
@@ -340,21 +340,6 @@
   </si>
   <si>
     <t>Allow Session</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\RequirementDB____DCOM.xlsx</t>
-  </si>
-  <si>
-    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase</t>
   </si>
 </sst>
 </file>
@@ -908,45 +893,29 @@
       <c r="A2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
@@ -996,27 +965,21 @@
       <c r="A21" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B21" s="22"/>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B22" s="22"/>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B23" s="22"/>
       <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1062,36 +1025,28 @@
       <c r="A31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B31" s="22"/>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B32" s="22"/>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B33" s="22"/>
       <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>99</v>
-      </c>
+      <c r="B34" s="22"/>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
@@ -1105,25 +1060,19 @@
       <c r="A41" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>100</v>
-      </c>
+      <c r="B41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>101</v>
-      </c>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>102</v>
-      </c>
+      <c r="B43" s="22"/>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
@@ -1137,97 +1086,73 @@
       <c r="A51" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B51" s="22"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B52" s="22"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B53" s="22"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>98</v>
-      </c>
+      <c r="B54" s="22"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B55" s="22"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B56" s="22"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B57" s="22"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B58" s="22"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B59" s="22"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="B60" s="22"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>98</v>
-      </c>
+      <c r="B61" s="22"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>98</v>
-      </c>
+      <c r="B62" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3290,37 +3215,25 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="U3" s="7"/>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -3336,37 +3249,25 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="U4" s="7"/>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -3382,30 +3283,20 @@
       <c r="F5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="3"/>
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -3417,30 +3308,20 @@
       <c r="F6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
         <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -3452,22 +3333,14 @@
       <c r="F7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="3"/>
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -3488,9 +3361,7 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -3511,9 +3382,7 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -3534,9 +3403,7 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -3557,9 +3424,7 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -3580,9 +3445,7 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -3603,9 +3466,7 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -3626,9 +3487,7 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -3649,9 +3508,7 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -3672,9 +3529,7 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -3695,9 +3550,7 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bosch.com\dfsrb\DfsVN\LOC\Hc\RBVH\20_EDA\04_External\00_Common\02_EDA2\db_BGSV_EDA2_Automation_Tool\DCOM\DB_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB0520-5B1F-4924-95DA-481BCA43E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D19B20E-30C5-4B3D-BE61-86AB58F5C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26595" yWindow="480" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="990" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="105">
   <si>
     <t>NRC</t>
   </si>
@@ -340,6 +340,27 @@
   </si>
   <si>
     <t>Allow Session</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\RequirementDB____DCOM.xlsx</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -1025,28 +1046,36 @@
       <c r="A31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="22"/>
+      <c r="B31" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
@@ -1060,19 +1089,25 @@
       <c r="A41" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="22" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
@@ -1086,73 +1121,97 @@
       <c r="A51" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="22"/>
+      <c r="B55" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="22"/>
+      <c r="B59" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="22"/>
+      <c r="B60" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="22"/>
+      <c r="B61" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="22" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1763,25 +1822,41 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1800,25 +1875,43 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1835,14 +1928,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -1858,14 +1961,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="O6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -1881,12 +1994,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -1902,12 +2027,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -1923,12 +2060,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -1944,12 +2093,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -1965,12 +2126,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -1986,7 +2159,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -2007,7 +2182,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -2028,7 +2205,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -2049,7 +2228,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -2070,7 +2251,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -2091,7 +2274,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -3215,25 +3400,41 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -3249,25 +3450,43 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -3283,21 +3502,37 @@
       <c r="F5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -3308,21 +3543,37 @@
       <c r="F6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="O6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -3333,19 +3584,37 @@
       <c r="F7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -3361,12 +3630,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -3382,12 +3663,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -3403,12 +3696,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -3424,12 +3729,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -3445,7 +3762,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -3466,7 +3785,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -3487,7 +3808,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -3508,7 +3831,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -3529,7 +3854,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -3550,7 +3877,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -3690,30 +4019,48 @@
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -3722,30 +4069,50 @@
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -3754,7 +4121,9 @@
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -3764,14 +4133,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -3787,14 +4166,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="O6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -3810,12 +4199,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -3831,12 +4232,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -3852,12 +4265,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -3873,12 +4298,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -3894,12 +4331,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -3915,7 +4364,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -3936,7 +4387,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -3957,7 +4410,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -3978,7 +4433,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -3999,7 +4456,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -4020,7 +4479,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -4174,25 +4635,41 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -4204,25 +4681,43 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -4239,14 +4734,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -4262,14 +4767,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="O6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -4285,12 +4800,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -4306,12 +4833,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -4327,12 +4866,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -4348,12 +4899,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -4369,12 +4932,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -4390,7 +4965,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -4411,7 +4988,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -4432,7 +5011,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -4453,7 +5034,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -4474,7 +5057,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -4495,7 +5080,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -5187,25 +5774,38 @@
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="O3" s="9" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7"/>
+      <c r="AD3" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -5222,25 +5822,40 @@
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AC4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
@@ -5257,20 +5872,33 @@
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="O5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
       <c r="AC5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
@@ -5287,13 +5915,24 @@
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="O6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -5313,11 +5952,24 @@
       <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
@@ -5337,11 +5989,24 @@
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
@@ -5361,11 +6026,24 @@
       <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
@@ -5385,11 +6063,24 @@
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
@@ -5409,11 +6100,24 @@
       <c r="L11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
@@ -5433,7 +6137,9 @@
       <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -5457,7 +6163,9 @@
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -5481,7 +6189,9 @@
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -5505,7 +6215,9 @@
       <c r="L15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -5529,7 +6241,9 @@
       <c r="L16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -5553,7 +6267,9 @@
       <c r="L17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -5947,25 +6663,38 @@
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="O3" s="9" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7"/>
+      <c r="AD3" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -5982,25 +6711,40 @@
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AC4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
@@ -6017,20 +6761,33 @@
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="O5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
       <c r="AC5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
@@ -6047,13 +6804,24 @@
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="O6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -6073,11 +6841,24 @@
       <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
@@ -6097,11 +6878,24 @@
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
@@ -6121,11 +6915,24 @@
       <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
@@ -6145,11 +6952,24 @@
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
@@ -6169,11 +6989,24 @@
       <c r="L11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
@@ -6193,7 +7026,9 @@
       <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -6217,7 +7052,9 @@
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -6241,7 +7078,9 @@
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -6265,7 +7104,9 @@
       <c r="L15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -6289,7 +7130,9 @@
       <c r="L16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -6313,7 +7156,9 @@
       <c r="L17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -6693,26 +7538,45 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="O3" s="9" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
@@ -6728,26 +7592,47 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="O4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
@@ -6764,14 +7649,27 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="O5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
@@ -6788,14 +7686,27 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="O6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -6812,12 +7723,27 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
@@ -6834,12 +7760,27 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
@@ -6856,12 +7797,27 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
@@ -6878,12 +7834,27 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
@@ -6900,12 +7871,27 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
@@ -6922,8 +7908,12 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -6944,8 +7934,12 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -6966,8 +7960,12 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -6988,8 +7986,12 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -7010,8 +8012,12 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -7032,8 +8038,12 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -7188,36 +8198,56 @@
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="E3" s="25" t="s">
         <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -7226,36 +8256,58 @@
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="E4" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -7264,11 +8316,15 @@
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="E5" s="25" t="s">
         <v>83</v>
       </c>
@@ -7280,14 +8336,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -7295,7 +8361,9 @@
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
@@ -7309,14 +8377,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="O6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -7336,12 +8414,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -7361,12 +8451,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -7386,12 +8488,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -7409,12 +8523,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -7432,12 +8558,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -7455,7 +8593,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -7478,7 +8618,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -7501,7 +8643,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -7524,7 +8668,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -7547,7 +8693,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -7570,7 +8718,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D19B20E-30C5-4B3D-BE61-86AB58F5C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493B9B44-EFD6-4215-93A6-7B204FC6CF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="990" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="232">
   <si>
     <t>NRC</t>
   </si>
@@ -361,6 +361,387 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
+  </si>
+  <si>
+    <t>E_pubc_BCS_BCS_2_A_BCS_VehSpd_Pv</t>
+  </si>
+  <si>
+    <t>EnvLogInLevel</t>
+  </si>
+  <si>
+    <t>f1fd</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>SAIC</t>
+  </si>
+  <si>
+    <t>AS28</t>
+  </si>
+  <si>
+    <t>R1.0</t>
+  </si>
+  <si>
+    <t>RC01</t>
+  </si>
+  <si>
+    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>13S</t>
+  </si>
+  <si>
+    <t>13L</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Crank</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>NetworkInformationDataIdentifier</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>56312E32</t>
+  </si>
+  <si>
+    <t>FunctionSpecificationDataIdentifier</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>56312E35</t>
+  </si>
+  <si>
+    <t>DiagnosticDefinitionDataIdentifier</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>56312E38</t>
+  </si>
+  <si>
+    <t>CHANA_ECUSoftwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F189</t>
+  </si>
+  <si>
+    <t>5357432E332E31.{2}</t>
+  </si>
+  <si>
+    <t>CHANA_ECUHardwareVersionNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F089</t>
+  </si>
+  <si>
+    <t>4857432E322E30.{2}</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>F187</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>373931373033302D435230312D4141.{12}</t>
+  </si>
+  <si>
+    <t>System Supplier Identifier</t>
+  </si>
+  <si>
+    <t>F18A</t>
+  </si>
+  <si>
+    <t>53303632303220</t>
+  </si>
+  <si>
+    <t>ECUSerialNumberDataIdentifier</t>
+  </si>
+  <si>
+    <t>F18C</t>
+  </si>
+  <si>
+    <t>00000000000000000000000000</t>
+  </si>
+  <si>
+    <t>VINDataIdentifier</t>
+  </si>
+  <si>
+    <t>F190</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>FBL Version Information</t>
+  </si>
+  <si>
+    <t>F170</t>
+  </si>
+  <si>
+    <t>FBL Requirement Specification</t>
+  </si>
+  <si>
+    <t>F171</t>
+  </si>
+  <si>
+    <t>Fingerprint</t>
+  </si>
+  <si>
+    <t>F184</t>
+  </si>
+  <si>
+    <t>Software Number</t>
+  </si>
+  <si>
+    <t>F188</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>393231323430312D43523031.{16}</t>
+  </si>
+  <si>
+    <t>Calibration DataIdentifier</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>vehicle type</t>
+  </si>
+  <si>
+    <t>F1F0</t>
+  </si>
+  <si>
+    <t>vehicle configuration</t>
+  </si>
+  <si>
+    <t>F1F4</t>
+  </si>
+  <si>
+    <t>ECU Hardware version number</t>
+  </si>
+  <si>
+    <t>F191</t>
+  </si>
+  <si>
+    <t>48573032.{10}</t>
+  </si>
+  <si>
+    <t>Supplier Software number</t>
+  </si>
+  <si>
+    <t>F194</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>FAB switch</t>
+  </si>
+  <si>
+    <t>F1F1</t>
+  </si>
+  <si>
+    <t>TSR switch</t>
+  </si>
+  <si>
+    <t>F1F2</t>
+  </si>
+  <si>
+    <t>TLA switch</t>
+  </si>
+  <si>
+    <t>F1F3</t>
+  </si>
+  <si>
+    <t>Body_height_wheelhouse_edge</t>
+  </si>
+  <si>
+    <t>F1F5</t>
+  </si>
+  <si>
+    <t>Calibration Board Distance</t>
+  </si>
+  <si>
+    <t>3BAF</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Invalid Key Counter</t>
+  </si>
+  <si>
+    <t>Current Calibration Status</t>
+  </si>
+  <si>
+    <t>F1F7</t>
+  </si>
+  <si>
+    <t>Current static calibration details</t>
+  </si>
+  <si>
+    <t>F1F8</t>
+  </si>
+  <si>
+    <t>00000000000000</t>
+  </si>
+  <si>
+    <t>Current EOL calibration parameters</t>
+  </si>
+  <si>
+    <t>F1F9</t>
+  </si>
+  <si>
+    <t>ECU Temperature</t>
+  </si>
+  <si>
+    <t>11B7</t>
+  </si>
+  <si>
+    <t>Can read the Previuos Calibration result</t>
+  </si>
+  <si>
+    <t>F1FA</t>
+  </si>
+  <si>
+    <t>Can read the Previuos Previous result</t>
+  </si>
+  <si>
+    <t>F1FB</t>
+  </si>
+  <si>
+    <t>ECU Supplier voltage</t>
+  </si>
+  <si>
+    <t>11B5</t>
+  </si>
+  <si>
+    <t>ProgrammingCounter</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProgrammingAttemptCounter </t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>ActiveDiagnosticSessionDataIdentifier</t>
+  </si>
+  <si>
+    <t>F1FD</t>
+  </si>
+  <si>
+    <t>Lane Function Configuration</t>
+  </si>
+  <si>
+    <t>F1FE</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>Transportation mode</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>MTOC</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>3131313131313131313131313131313131</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Distance between target and vehicle</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>Variant Coding</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>function configuration</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>Manufactory mode</t>
+  </si>
+  <si>
+    <t>0110</t>
   </si>
 </sst>
 </file>
@@ -914,28 +1295,36 @@
       <c r="A2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -986,21 +1375,27 @@
       <c r="A21" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1047,7 +1442,7 @@
         <v>75</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C31" s="20"/>
     </row>
@@ -1056,7 +1451,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C32" s="20"/>
     </row>
@@ -1065,7 +1460,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C33" s="20"/>
     </row>
@@ -1074,7 +1469,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -1106,7 +1501,7 @@
         <v>78</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1146,7 +1541,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1154,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1557,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1565,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1178,7 +1573,7 @@
         <v>48</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1186,7 +1581,7 @@
         <v>11</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1194,7 +1589,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1202,7 +1597,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,7 +1605,7 @@
         <v>71</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +1620,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N7" sqref="N7:N8"/>
     </sheetView>
   </sheetViews>
@@ -1810,7 +2205,7 @@
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -1823,20 +2218,20 @@
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
@@ -1855,7 +2250,7 @@
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -1876,35 +2271,35 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
@@ -1929,22 +2324,22 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -1965,19 +2360,19 @@
         <v>98</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -1998,16 +2393,16 @@
         <v>98</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>98</v>
@@ -2031,16 +2426,16 @@
         <v>98</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>98</v>
@@ -2064,16 +2459,16 @@
         <v>98</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>98</v>
@@ -2162,11 +2557,21 @@
       <c r="L12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="N12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -2185,11 +2590,21 @@
       <c r="L13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="N13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -2208,11 +2623,21 @@
       <c r="L14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="N14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -3401,20 +3826,20 @@
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
@@ -3451,35 +3876,35 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
@@ -3503,35 +3928,35 @@
         <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>101</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -3544,10 +3969,10 @@
         <v>56</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>101</v>
@@ -3557,22 +3982,22 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -3585,32 +4010,32 @@
         <v>79</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>98</v>
@@ -3631,19 +4056,19 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>98</v>
@@ -3664,19 +4089,19 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>98</v>
@@ -3697,7 +4122,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>98</v>
@@ -3730,7 +4155,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>98</v>
@@ -3763,13 +4188,23 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -3786,13 +4221,23 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -3809,13 +4254,23 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -3832,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -4020,27 +4475,27 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
@@ -4059,7 +4514,7 @@
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -4077,35 +4532,35 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
@@ -4122,7 +4577,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="8"/>
@@ -4134,22 +4589,22 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -4167,22 +4622,22 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -4203,16 +4658,16 @@
         <v>98</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>98</v>
@@ -4236,16 +4691,16 @@
         <v>98</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>98</v>
@@ -4269,16 +4724,16 @@
         <v>98</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>98</v>
@@ -4367,11 +4822,21 @@
       <c r="L12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="N12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -4390,11 +4855,21 @@
       <c r="L13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="N13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -4413,11 +4888,21 @@
       <c r="L14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="N14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -4516,7 +5001,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
@@ -4636,20 +5121,20 @@
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>101</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
@@ -4682,35 +5167,35 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>101</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
@@ -4735,22 +5220,22 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -4771,19 +5256,19 @@
         <v>98</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -4804,16 +5289,16 @@
         <v>98</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>98</v>
@@ -4837,16 +5322,16 @@
         <v>98</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>98</v>
@@ -4870,16 +5355,16 @@
         <v>98</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>98</v>
@@ -4968,11 +5453,21 @@
       <c r="L12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="N12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -4991,11 +5486,21 @@
       <c r="L13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="N13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -5014,11 +5519,21 @@
       <c r="L14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="N14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -5629,7 +6144,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3:AC5"/>
     </sheetView>
   </sheetViews>
@@ -5760,37 +6275,59 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="Q3" s="14" t="s">
         <v>101</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
@@ -5800,6 +6337,9 @@
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="Y3" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="AC3" s="9" t="s">
         <v>1</v>
       </c>
@@ -5808,39 +6348,59 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
@@ -5850,6 +6410,9 @@
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="Y4" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="AC4" s="9" t="s">
         <v>2</v>
       </c>
@@ -5858,41 +6421,64 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>136</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>96</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
+      <c r="Y5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="AC5" s="9" t="s">
         <v>3</v>
       </c>
@@ -5901,53 +6487,91 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>96</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
         <v>21</v>
@@ -5959,32 +6583,52 @@
         <v>98</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S7" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="9" t="s">
         <v>18</v>
@@ -5996,32 +6640,52 @@
         <v>98</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>98</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="9" t="s">
         <v>22</v>
@@ -6033,32 +6697,52 @@
         <v>98</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>98</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="9" t="s">
         <v>23</v>
@@ -6081,21 +6765,41 @@
       <c r="R10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="9" t="s">
         <v>24</v>
@@ -6118,21 +6822,41 @@
       <c r="R11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S11" s="7"/>
+      <c r="S11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="9" t="s">
         <v>25</v>
@@ -6140,25 +6864,53 @@
       <c r="M12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="O12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="9" t="s">
         <v>9</v>
@@ -6166,25 +6918,53 @@
       <c r="M13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="O13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="9" t="s">
         <v>10</v>
@@ -6192,25 +6972,53 @@
       <c r="M14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="O14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>166</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="9" t="s">
         <v>26</v>
@@ -6227,16 +7035,34 @@
       <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="9" t="s">
         <v>35</v>
@@ -6253,16 +7079,34 @@
       <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="18"/>
+      <c r="A17" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="9" t="s">
         <v>54</v>
@@ -6279,224 +7123,584 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="A18" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="A19" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="A20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="A21" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="A22" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="A23" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="A24" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="A25" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="A26" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="A27" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="18"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="A28" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="18"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="A29" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="A30" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="A31" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="A32" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="A33" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="A34" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="A35" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="A36" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="A37" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6518,7 +7722,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3:AC5"/>
     </sheetView>
   </sheetViews>
@@ -6649,37 +7853,61 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="A3" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="Q3" s="14" t="s">
         <v>101</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
@@ -6689,6 +7917,9 @@
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="Y3" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="AC3" s="9" t="s">
         <v>1</v>
       </c>
@@ -6697,48 +7928,73 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="A4" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="Y4" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="AC4" s="9" t="s">
         <v>2</v>
       </c>
@@ -6747,41 +8003,66 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>96</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
+      <c r="Y5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="AC5" s="9" t="s">
         <v>3</v>
       </c>
@@ -6790,53 +8071,95 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="A6" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>96</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="A7" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
         <v>21</v>
@@ -6848,32 +8171,54 @@
         <v>98</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S7" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="9" t="s">
         <v>18</v>
@@ -6885,32 +8230,54 @@
         <v>98</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>98</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="A9" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="9" t="s">
         <v>22</v>
@@ -6922,32 +8289,54 @@
         <v>98</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>98</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="9" t="s">
         <v>23</v>
@@ -6970,21 +8359,43 @@
       <c r="R10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="A11" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="9" t="s">
         <v>24</v>
@@ -7007,21 +8418,43 @@
       <c r="R11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S11" s="7"/>
+      <c r="S11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="9" t="s">
         <v>25</v>
@@ -7029,25 +8462,55 @@
       <c r="M12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="O12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="9" t="s">
         <v>9</v>
@@ -7055,11 +8518,21 @@
       <c r="M13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="O13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
@@ -7069,11 +8542,21 @@
       <c r="C14" s="15"/>
       <c r="D14" s="18"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="9" t="s">
         <v>10</v>
@@ -7081,11 +8564,21 @@
       <c r="M14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="O14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
@@ -7545,32 +9038,36 @@
         <v>101</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="Q3" s="14" t="s">
         <v>101</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
@@ -7606,27 +9103,29 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
@@ -7650,27 +9149,29 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>96</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
     </row>
@@ -7687,27 +9188,29 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>96</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
@@ -7724,27 +9227,29 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>98</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S7" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
@@ -7764,24 +9269,26 @@
         <v>98</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>98</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>98</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
@@ -7801,24 +9308,26 @@
         <v>98</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>98</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>98</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
@@ -7855,7 +9364,9 @@
       <c r="R10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
@@ -7892,7 +9403,9 @@
       <c r="R11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S11" s="7"/>
+      <c r="S11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
@@ -7914,11 +9427,21 @@
       <c r="M12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="O12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
@@ -7940,11 +9463,21 @@
       <c r="M13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="O13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
@@ -7966,11 +9499,21 @@
       <c r="M14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="O14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
@@ -8078,7 +9621,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
@@ -8199,13 +9742,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>81</v>
@@ -8220,14 +9763,14 @@
         <v>101</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
@@ -8246,7 +9789,7 @@
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -8278,29 +9821,29 @@
         <v>101</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
@@ -8323,7 +9866,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>83</v>
@@ -8337,22 +9880,22 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -8362,7 +9905,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="24"/>
@@ -8378,22 +9921,22 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -8415,19 +9958,19 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>98</v>
@@ -8452,19 +9995,19 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>98</v>
@@ -8492,16 +10035,16 @@
         <v>98</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>98</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>98</v>
@@ -8596,11 +10139,21 @@
       <c r="L12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="N12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -8621,11 +10174,21 @@
       <c r="L13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="N13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -8646,11 +10209,21 @@
       <c r="L14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="N14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB____DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493B9B44-EFD6-4215-93A6-7B204FC6CF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{575A2424-9771-4971-99DE-29AB2E3E8A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27285" yWindow="2640" windowWidth="24855" windowHeight="15315" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="108">
   <si>
     <t>NRC</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Selected_Service</t>
   </si>
   <si>
-    <t xml:space="preserve">Time_Out </t>
-  </si>
-  <si>
     <t>CanTP</t>
   </si>
   <si>
@@ -342,6 +339,18 @@
     <t>Allow Session</t>
   </si>
   <si>
+    <t>Invalid Value</t>
+  </si>
+  <si>
+    <t>Valid Value</t>
+  </si>
+  <si>
+    <t>DTC ID</t>
+  </si>
+  <si>
+    <t>d78687</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -361,387 +370,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
-  </si>
-  <si>
-    <t>E_pubc_BCS_BCS_2_A_BCS_VehSpd_Pv</t>
-  </si>
-  <si>
-    <t>EnvLogInLevel</t>
-  </si>
-  <si>
-    <t>f1fd</t>
-  </si>
-  <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>0104</t>
-  </si>
-  <si>
-    <t>SAIC</t>
-  </si>
-  <si>
-    <t>AS28</t>
-  </si>
-  <si>
-    <t>R1.0</t>
-  </si>
-  <si>
-    <t>RC01</t>
-  </si>
-  <si>
-    <t>D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase</t>
-  </si>
-  <si>
-    <t>7F</t>
-  </si>
-  <si>
-    <t>13S</t>
-  </si>
-  <si>
-    <t>13L</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>7E</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Crank</t>
-  </si>
-  <si>
-    <t>Running</t>
-  </si>
-  <si>
-    <t>Reverse</t>
-  </si>
-  <si>
-    <t>NetworkInformationDataIdentifier</t>
-  </si>
-  <si>
-    <t>F120</t>
-  </si>
-  <si>
-    <t>56312E32</t>
-  </si>
-  <si>
-    <t>FunctionSpecificationDataIdentifier</t>
-  </si>
-  <si>
-    <t>F121</t>
-  </si>
-  <si>
-    <t>56312E35</t>
-  </si>
-  <si>
-    <t>DiagnosticDefinitionDataIdentifier</t>
-  </si>
-  <si>
-    <t>F122</t>
-  </si>
-  <si>
-    <t>56312E38</t>
-  </si>
-  <si>
-    <t>CHANA_ECUSoftwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>F189</t>
-  </si>
-  <si>
-    <t>5357432E332E31.{2}</t>
-  </si>
-  <si>
-    <t>CHANA_ECUHardwareVersionNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>F089</t>
-  </si>
-  <si>
-    <t>4857432E322E30.{2}</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>F187</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>373931373033302D435230312D4141.{12}</t>
-  </si>
-  <si>
-    <t>System Supplier Identifier</t>
-  </si>
-  <si>
-    <t>F18A</t>
-  </si>
-  <si>
-    <t>53303632303220</t>
-  </si>
-  <si>
-    <t>ECUSerialNumberDataIdentifier</t>
-  </si>
-  <si>
-    <t>F18C</t>
-  </si>
-  <si>
-    <t>00000000000000000000000000</t>
-  </si>
-  <si>
-    <t>VINDataIdentifier</t>
-  </si>
-  <si>
-    <t>F190</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>0000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>FBL Version Information</t>
-  </si>
-  <si>
-    <t>F170</t>
-  </si>
-  <si>
-    <t>FBL Requirement Specification</t>
-  </si>
-  <si>
-    <t>F171</t>
-  </si>
-  <si>
-    <t>Fingerprint</t>
-  </si>
-  <si>
-    <t>F184</t>
-  </si>
-  <si>
-    <t>Software Number</t>
-  </si>
-  <si>
-    <t>F188</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>393231323430312D43523031.{16}</t>
-  </si>
-  <si>
-    <t>Calibration DataIdentifier</t>
-  </si>
-  <si>
-    <t>F123</t>
-  </si>
-  <si>
-    <t>vehicle type</t>
-  </si>
-  <si>
-    <t>F1F0</t>
-  </si>
-  <si>
-    <t>vehicle configuration</t>
-  </si>
-  <si>
-    <t>F1F4</t>
-  </si>
-  <si>
-    <t>ECU Hardware version number</t>
-  </si>
-  <si>
-    <t>F191</t>
-  </si>
-  <si>
-    <t>48573032.{10}</t>
-  </si>
-  <si>
-    <t>Supplier Software number</t>
-  </si>
-  <si>
-    <t>F194</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>FAB switch</t>
-  </si>
-  <si>
-    <t>F1F1</t>
-  </si>
-  <si>
-    <t>TSR switch</t>
-  </si>
-  <si>
-    <t>F1F2</t>
-  </si>
-  <si>
-    <t>TLA switch</t>
-  </si>
-  <si>
-    <t>F1F3</t>
-  </si>
-  <si>
-    <t>Body_height_wheelhouse_edge</t>
-  </si>
-  <si>
-    <t>F1F5</t>
-  </si>
-  <si>
-    <t>Calibration Board Distance</t>
-  </si>
-  <si>
-    <t>3BAF</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>Invalid Key Counter</t>
-  </si>
-  <si>
-    <t>Current Calibration Status</t>
-  </si>
-  <si>
-    <t>F1F7</t>
-  </si>
-  <si>
-    <t>Current static calibration details</t>
-  </si>
-  <si>
-    <t>F1F8</t>
-  </si>
-  <si>
-    <t>00000000000000</t>
-  </si>
-  <si>
-    <t>Current EOL calibration parameters</t>
-  </si>
-  <si>
-    <t>F1F9</t>
-  </si>
-  <si>
-    <t>ECU Temperature</t>
-  </si>
-  <si>
-    <t>11B7</t>
-  </si>
-  <si>
-    <t>Can read the Previuos Calibration result</t>
-  </si>
-  <si>
-    <t>F1FA</t>
-  </si>
-  <si>
-    <t>Can read the Previuos Previous result</t>
-  </si>
-  <si>
-    <t>F1FB</t>
-  </si>
-  <si>
-    <t>ECU Supplier voltage</t>
-  </si>
-  <si>
-    <t>11B5</t>
-  </si>
-  <si>
-    <t>ProgrammingCounter</t>
-  </si>
-  <si>
-    <t>0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProgrammingAttemptCounter </t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>ActiveDiagnosticSessionDataIdentifier</t>
-  </si>
-  <si>
-    <t>F1FD</t>
-  </si>
-  <si>
-    <t>Lane Function Configuration</t>
-  </si>
-  <si>
-    <t>F1FE</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>Transportation mode</t>
-  </si>
-  <si>
-    <t>0140</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>MTOC</t>
-  </si>
-  <si>
-    <t>F102</t>
-  </si>
-  <si>
-    <t>3131313131313131313131313131313131</t>
-  </si>
-  <si>
-    <t>VIN</t>
-  </si>
-  <si>
-    <t>Distance between target and vehicle</t>
-  </si>
-  <si>
-    <t>0308</t>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>Variant Coding</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>function configuration</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>Manufactory mode</t>
-  </si>
-  <si>
-    <t>0110</t>
   </si>
 </sst>
 </file>
@@ -1267,8 +895,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1288,74 +916,68 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="22"/>
+        <v>91</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="18" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
@@ -1373,29 +995,23 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>108</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B21" s="22"/>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>109</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B22" s="22"/>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>110</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B23" s="22"/>
       <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1430,7 +1046,7 @@
     </row>
     <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>41</v>
@@ -1439,10 +1055,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C31" s="20"/>
     </row>
@@ -1451,7 +1067,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C32" s="20"/>
     </row>
@@ -1460,7 +1076,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C33" s="20"/>
     </row>
@@ -1469,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -1482,26 +1098,26 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1517,7 +1133,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1525,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1533,7 +1149,7 @@
         <v>35</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1541,7 +1157,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1549,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1557,7 +1173,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1565,7 +1181,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1573,7 +1189,7 @@
         <v>48</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1581,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1589,7 +1205,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1597,15 +1213,15 @@
         <v>50</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1236,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N7" sqref="N7:N8"/>
     </sheetView>
   </sheetViews>
@@ -1713,7 +1329,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -1739,25 +1355,41 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1769,25 +1401,43 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1804,14 +1454,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -1827,14 +1487,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -1850,12 +1520,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -1871,12 +1553,24 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
@@ -1892,12 +1586,24 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
@@ -1913,12 +1619,24 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
@@ -1934,12 +1652,24 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
@@ -1955,7 +1685,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -1976,7 +1708,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -1997,7 +1731,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -2018,7 +1754,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -2039,7 +1777,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -2060,7 +1800,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -2188,7 +1930,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -2205,52 +1947,52 @@
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -2264,48 +2006,48 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -2324,22 +2066,22 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -2357,22 +2099,22 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -2390,22 +2132,22 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -2423,22 +2165,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -2456,22 +2198,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -2489,22 +2231,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -2522,22 +2264,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -2555,23 +2297,13 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -2588,23 +2320,13 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -2621,23 +2343,13 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -2654,7 +2366,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -2677,7 +2389,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -2700,7 +2412,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -2829,7 +2541,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -2852,7 +2564,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -2889,7 +2601,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -2932,7 +2644,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2955,7 +2667,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3314,7 +3026,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -3337,7 +3049,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -3374,7 +3086,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -3417,7 +3129,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -3440,7 +3152,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3799,7 +3511,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -3826,39 +3538,39 @@
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -3876,41 +3588,41 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -3928,35 +3640,35 @@
         <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -3969,35 +3681,35 @@
         <v>56</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -4007,38 +3719,38 @@
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
       <c r="F7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -4056,22 +3768,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -4089,22 +3801,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -4122,22 +3834,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -4155,22 +3867,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -4188,23 +3900,13 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -4221,23 +3923,13 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -4254,23 +3946,13 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -4287,7 +3969,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -4310,7 +3992,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -4333,7 +4015,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -4455,7 +4137,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -4475,46 +4157,46 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -4525,48 +4207,48 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -4577,7 +4259,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="8"/>
@@ -4589,22 +4271,22 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -4622,22 +4304,22 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -4655,22 +4337,22 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -4688,22 +4370,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -4721,22 +4403,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -4754,22 +4436,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -4787,22 +4469,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -4820,23 +4502,13 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -4853,23 +4525,13 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -4886,23 +4548,13 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -4919,7 +4571,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -4942,7 +4594,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -4965,7 +4617,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -5001,7 +4653,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
@@ -5094,7 +4746,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -5121,39 +4773,39 @@
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -5167,41 +4819,41 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -5220,22 +4872,22 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -5253,22 +4905,22 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -5286,22 +4938,22 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -5319,22 +4971,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -5352,22 +5004,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -5385,22 +5037,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -5418,22 +5070,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -5451,23 +5103,13 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -5484,23 +5126,13 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -5517,23 +5149,13 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -5550,7 +5172,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -5573,7 +5195,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -5596,7 +5218,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -5727,7 +5349,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -5828,7 +5450,7 @@
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -5855,7 +5477,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -6142,10 +5764,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AC5"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6167,14 +5789,16 @@
     <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
     <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
     <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.85546875" style="6" customWidth="1"/>
     <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
     <col min="29" max="29" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -6205,12 +5829,12 @@
         <v>59</v>
       </c>
       <c r="V1" s="29"/>
-      <c r="AC1" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD1" s="29"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="29"/>
+    </row>
+    <row r="2" spans="1:25" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>67</v>
       </c>
@@ -6253,7 +5877,7 @@
         <v>65</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -6267,764 +5891,462 @@
       <c r="V2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>130</v>
-      </c>
+    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="3"/>
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>101</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="Q3" s="14"/>
       <c r="R3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="Y3" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>136</v>
-      </c>
+      <c r="Y4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
-      <c r="Y5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>139</v>
-      </c>
+      <c r="Y5" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>142</v>
-      </c>
+    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>101</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>146</v>
-      </c>
+    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>101</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>149</v>
-      </c>
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>101</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>152</v>
-      </c>
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2"/>
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>156</v>
-      </c>
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2"/>
       <c r="L11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>98</v>
-      </c>
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="2"/>
       <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>98</v>
-      </c>
+    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="2"/>
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>98</v>
-      </c>
+    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="2"/>
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>166</v>
-      </c>
+    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="2"/>
       <c r="L15" s="9" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
@@ -7034,41 +6356,23 @@
       <c r="U15" s="9"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>98</v>
-      </c>
+    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="2"/>
       <c r="L16" s="9" t="s">
         <v>35</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
@@ -7079,40 +6383,22 @@
       <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="4"/>
       <c r="L17" s="9" t="s">
         <v>54</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
@@ -7123,588 +6409,228 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="18"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="18"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="18"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="18"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
@@ -7720,75 +6646,79 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AD111"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AC5"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.140625" style="5" customWidth="1"/>
     <col min="2" max="3" width="14.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="18.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="35.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="18.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
+    <col min="16" max="18" width="18.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="6" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="28" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="29"/>
+      <c r="P1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="29"/>
+      <c r="V1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="AC1" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD1" s="29"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W1" s="29"/>
+      <c r="Y1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:26" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>67</v>
       </c>
@@ -7799,1088 +6729,828 @@
         <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="R2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="Q3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="R3" s="14"/>
       <c r="S3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="9" t="s">
+      <c r="Z3" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>15</v>
-      </c>
       <c r="Q4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="9" t="s">
+      <c r="Z4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>13</v>
+      <c r="N5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="7"/>
-      <c r="Y5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V5" s="9"/>
+      <c r="W5" s="7"/>
+      <c r="Y5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="9" t="s">
+      <c r="Z5" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>16</v>
+      <c r="N6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="14" t="s">
+      <c r="N7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="R7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>98</v>
+      <c r="N8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>101</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>98</v>
+      <c r="N9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="14" t="s">
         <v>101</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>98</v>
+      <c r="N10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>98</v>
+      <c r="N11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="9" t="s">
+      <c r="N12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U13" s="9"/>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="9" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="14"/>
+      <c r="N15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="9"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="7"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="7"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="14"/>
+      <c r="N16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="9"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="14"/>
       <c r="S16" s="7"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="7"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="7"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="14"/>
+      <c r="N17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="9"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="7"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="7"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="18"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="18"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="18"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="18"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="18"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="18"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="18"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8890,12 +7560,12 @@
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8993,10 +7663,10 @@
         <v>8</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>57</v>
@@ -9005,7 +7675,7 @@
         <v>65</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>31</v>
@@ -9032,47 +7702,42 @@
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>101</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="Q3" s="14"/>
       <c r="R3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
@@ -9090,47 +7755,44 @@
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
@@ -9149,28 +7811,25 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
@@ -9188,28 +7847,25 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -9227,28 +7883,25 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>101</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
@@ -9266,28 +7919,25 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>101</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
@@ -9305,28 +7955,25 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>101</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
@@ -9344,28 +7991,25 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
@@ -9383,28 +8027,25 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
@@ -9422,26 +8063,16 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
@@ -9458,26 +8089,16 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
@@ -9494,26 +8115,16 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
@@ -9530,10 +8141,10 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
@@ -9556,10 +8167,10 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
@@ -9582,10 +8193,10 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
@@ -9621,7 +8232,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
@@ -9684,13 +8295,13 @@
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>31</v>
@@ -9722,7 +8333,7 @@
         <v>65</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>31</v>
@@ -9742,54 +8353,54 @@
         <v>7</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
@@ -9800,56 +8411,56 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
@@ -9860,16 +8471,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -9880,22 +8491,22 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -9905,12 +8516,12 @@
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
@@ -9921,22 +8532,22 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -9947,7 +8558,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
@@ -9958,22 +8569,22 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -9984,7 +8595,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
@@ -9995,22 +8606,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -10021,7 +8632,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
@@ -10032,22 +8643,22 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -10067,22 +8678,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -10102,22 +8713,22 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -10137,23 +8748,13 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
@@ -10172,23 +8773,13 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
@@ -10207,23 +8798,13 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
@@ -10242,7 +8823,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -10267,7 +8848,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -10292,7 +8873,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
